--- a/contratos/contratos-3-2009.xlsx
+++ b/contratos/contratos-3-2009.xlsx
@@ -559,7 +559,7 @@
     <t>TURIN MARIA DE LOS ANGELES</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>AROSTEGUI GRISELDA EDITH</t>
@@ -595,7 +595,7 @@
     <t>IGLESIAS JOSE FABIAN</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>TOME SARA EVA GRACIELA</t>
@@ -604,10 +604,10 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>METRALLE GRISELDA BEATRIZ</t>
@@ -1054,463 +1054,463 @@
     <t>127</t>
   </si>
   <si>
-    <t>654,00</t>
-  </si>
-  <si>
-    <t>12.907,07</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>991,00</t>
-  </si>
-  <si>
-    <t>105,00</t>
-  </si>
-  <si>
-    <t>3.324,50</t>
-  </si>
-  <si>
-    <t>223,00</t>
-  </si>
-  <si>
-    <t>7.299,94</t>
-  </si>
-  <si>
-    <t>15.558,53</t>
-  </si>
-  <si>
-    <t>18.336,90</t>
-  </si>
-  <si>
-    <t>49.851,05</t>
-  </si>
-  <si>
-    <t>6.785,38</t>
-  </si>
-  <si>
-    <t>2.672,47</t>
-  </si>
-  <si>
-    <t>19.248,45</t>
-  </si>
-  <si>
-    <t>5.932,08</t>
-  </si>
-  <si>
-    <t>86,00</t>
-  </si>
-  <si>
-    <t>1.160,90</t>
-  </si>
-  <si>
-    <t>2,00</t>
-  </si>
-  <si>
-    <t>8.013,12</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>129,28</t>
-  </si>
-  <si>
-    <t>38,00</t>
-  </si>
-  <si>
-    <t>749,00</t>
-  </si>
-  <si>
-    <t>109,00</t>
-  </si>
-  <si>
-    <t>181,88</t>
-  </si>
-  <si>
-    <t>2.241,89</t>
-  </si>
-  <si>
-    <t>6.721,02</t>
-  </si>
-  <si>
-    <t>69,06</t>
-  </si>
-  <si>
-    <t>2.381,57</t>
-  </si>
-  <si>
-    <t>7,32</t>
-  </si>
-  <si>
-    <t>55,45</t>
-  </si>
-  <si>
-    <t>1.845,08</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>1.416,04</t>
-  </si>
-  <si>
-    <t>67,00</t>
-  </si>
-  <si>
-    <t>256,00</t>
-  </si>
-  <si>
-    <t>5.907,40</t>
-  </si>
-  <si>
-    <t>16,94</t>
-  </si>
-  <si>
-    <t>58,00</t>
-  </si>
-  <si>
-    <t>6.202,09</t>
-  </si>
-  <si>
-    <t>85,00</t>
-  </si>
-  <si>
-    <t>3.427,73</t>
-  </si>
-  <si>
-    <t>3.669,02</t>
-  </si>
-  <si>
-    <t>925,00</t>
-  </si>
-  <si>
-    <t>5,00</t>
-  </si>
-  <si>
-    <t>381,97</t>
-  </si>
-  <si>
-    <t>315,00</t>
-  </si>
-  <si>
-    <t>402,53</t>
-  </si>
-  <si>
-    <t>417,45</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>4.190,00</t>
-  </si>
-  <si>
-    <t>4.573,80</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>11.094,00</t>
-  </si>
-  <si>
-    <t>1.357,50</t>
-  </si>
-  <si>
-    <t>625,00</t>
-  </si>
-  <si>
-    <t>3.077,19</t>
-  </si>
-  <si>
-    <t>1.907,00</t>
-  </si>
-  <si>
-    <t>11,00</t>
-  </si>
-  <si>
-    <t>71,00</t>
-  </si>
-  <si>
-    <t>212.532,00</t>
-  </si>
-  <si>
-    <t>156,24</t>
-  </si>
-  <si>
-    <t>2.118,15</t>
-  </si>
-  <si>
-    <t>1,47</t>
-  </si>
-  <si>
-    <t>2.408,93</t>
-  </si>
-  <si>
-    <t>22,41</t>
-  </si>
-  <si>
-    <t>107,74</t>
-  </si>
-  <si>
-    <t>7,98</t>
-  </si>
-  <si>
-    <t>205,84</t>
-  </si>
-  <si>
-    <t>1.023,90</t>
-  </si>
-  <si>
-    <t>509,88</t>
-  </si>
-  <si>
-    <t>8,70</t>
-  </si>
-  <si>
-    <t>39,30</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>4.706,30</t>
-  </si>
-  <si>
-    <t>1.457,55</t>
-  </si>
-  <si>
-    <t>72,00</t>
-  </si>
-  <si>
-    <t>165,75</t>
-  </si>
-  <si>
-    <t>50,63</t>
-  </si>
-  <si>
-    <t>725,00</t>
-  </si>
-  <si>
-    <t>175,50</t>
-  </si>
-  <si>
-    <t>4.399,46</t>
-  </si>
-  <si>
-    <t>439,00</t>
-  </si>
-  <si>
-    <t>52.188,00</t>
-  </si>
-  <si>
-    <t>12.520,00</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>105,12</t>
-  </si>
-  <si>
-    <t>132,30</t>
-  </si>
-  <si>
-    <t>64,00</t>
-  </si>
-  <si>
-    <t>693,50</t>
-  </si>
-  <si>
-    <t>322,50</t>
-  </si>
-  <si>
-    <t>28,34</t>
-  </si>
-  <si>
-    <t>207,30</t>
-  </si>
-  <si>
-    <t>17.530,00</t>
-  </si>
-  <si>
-    <t>41.098,86</t>
-  </si>
-  <si>
-    <t>1.594,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>5.755,27</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>4.137,14</t>
-  </si>
-  <si>
-    <t>660,00</t>
-  </si>
-  <si>
-    <t>9.111,30</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>744,01</t>
-  </si>
-  <si>
-    <t>206,00</t>
-  </si>
-  <si>
-    <t>201,00</t>
-  </si>
-  <si>
-    <t>186,00</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>1.903,50</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>230,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>190,21</t>
-  </si>
-  <si>
-    <t>8.398,00</t>
-  </si>
-  <si>
-    <t>699,17</t>
-  </si>
-  <si>
-    <t>634,00</t>
-  </si>
-  <si>
-    <t>628,00</t>
-  </si>
-  <si>
-    <t>20.860,00</t>
-  </si>
-  <si>
-    <t>10,40</t>
-  </si>
-  <si>
-    <t>149,07</t>
-  </si>
-  <si>
-    <t>3.225,43</t>
-  </si>
-  <si>
-    <t>1.698,67</t>
-  </si>
-  <si>
-    <t>2.920,00</t>
-  </si>
-  <si>
-    <t>3.473,37</t>
-  </si>
-  <si>
-    <t>3.900,00</t>
-  </si>
-  <si>
-    <t>283,40</t>
-  </si>
-  <si>
-    <t>5,27</t>
-  </si>
-  <si>
-    <t>112,30</t>
-  </si>
-  <si>
-    <t>1.602,00</t>
-  </si>
-  <si>
-    <t>9.427,00</t>
-  </si>
-  <si>
-    <t>407,73</t>
-  </si>
-  <si>
-    <t>5.790,46</t>
-  </si>
-  <si>
-    <t>7.946,31</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>572.003,68</t>
-  </si>
-  <si>
-    <t>11.495,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>875,60</t>
-  </si>
-  <si>
-    <t>4.089,40</t>
-  </si>
-  <si>
-    <t>4.100,00</t>
-  </si>
-  <si>
-    <t>276,00</t>
+    <t>654.00</t>
+  </si>
+  <si>
+    <t>12907.07</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>991.00</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>3324.50</t>
+  </si>
+  <si>
+    <t>223.00</t>
+  </si>
+  <si>
+    <t>7299.94</t>
+  </si>
+  <si>
+    <t>15558.53</t>
+  </si>
+  <si>
+    <t>18336.90</t>
+  </si>
+  <si>
+    <t>49851.05</t>
+  </si>
+  <si>
+    <t>6785.38</t>
+  </si>
+  <si>
+    <t>2672.47</t>
+  </si>
+  <si>
+    <t>19248.45</t>
+  </si>
+  <si>
+    <t>5932.08</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>1160.90</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8013.12</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>129.28</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>749.00</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>181.88</t>
+  </si>
+  <si>
+    <t>2241.89</t>
+  </si>
+  <si>
+    <t>6721.02</t>
+  </si>
+  <si>
+    <t>69.06</t>
+  </si>
+  <si>
+    <t>2381.57</t>
+  </si>
+  <si>
+    <t>7.32</t>
+  </si>
+  <si>
+    <t>55.45</t>
+  </si>
+  <si>
+    <t>1845.08</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>1416.04</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>5907.40</t>
+  </si>
+  <si>
+    <t>16.94</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>6202.09</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>3427.73</t>
+  </si>
+  <si>
+    <t>3669.02</t>
+  </si>
+  <si>
+    <t>925.00</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>381.97</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>402.53</t>
+  </si>
+  <si>
+    <t>417.45</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>4190.00</t>
+  </si>
+  <si>
+    <t>4573.80</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>11094.00</t>
+  </si>
+  <si>
+    <t>1357.50</t>
+  </si>
+  <si>
+    <t>625.00</t>
+  </si>
+  <si>
+    <t>3077.19</t>
+  </si>
+  <si>
+    <t>1907.00</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>212532.00</t>
+  </si>
+  <si>
+    <t>156.24</t>
+  </si>
+  <si>
+    <t>2118.15</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>2408.93</t>
+  </si>
+  <si>
+    <t>22.41</t>
+  </si>
+  <si>
+    <t>107.74</t>
+  </si>
+  <si>
+    <t>7.98</t>
+  </si>
+  <si>
+    <t>205.84</t>
+  </si>
+  <si>
+    <t>1023.90</t>
+  </si>
+  <si>
+    <t>509.88</t>
+  </si>
+  <si>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>39.30</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>4706.30</t>
+  </si>
+  <si>
+    <t>1457.55</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>165.75</t>
+  </si>
+  <si>
+    <t>50.63</t>
+  </si>
+  <si>
+    <t>725.00</t>
+  </si>
+  <si>
+    <t>175.50</t>
+  </si>
+  <si>
+    <t>4399.46</t>
+  </si>
+  <si>
+    <t>439.00</t>
+  </si>
+  <si>
+    <t>52188.00</t>
+  </si>
+  <si>
+    <t>12520.00</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>105.12</t>
+  </si>
+  <si>
+    <t>132.30</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>693.50</t>
+  </si>
+  <si>
+    <t>322.50</t>
+  </si>
+  <si>
+    <t>28.34</t>
+  </si>
+  <si>
+    <t>207.30</t>
+  </si>
+  <si>
+    <t>17530.00</t>
+  </si>
+  <si>
+    <t>41098.86</t>
+  </si>
+  <si>
+    <t>1594.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>5755.27</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>4137.14</t>
+  </si>
+  <si>
+    <t>660.00</t>
+  </si>
+  <si>
+    <t>9111.30</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>744.01</t>
+  </si>
+  <si>
+    <t>206.00</t>
+  </si>
+  <si>
+    <t>201.00</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>1903.50</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>190.21</t>
+  </si>
+  <si>
+    <t>8398.00</t>
+  </si>
+  <si>
+    <t>699.17</t>
+  </si>
+  <si>
+    <t>634.00</t>
+  </si>
+  <si>
+    <t>628.00</t>
+  </si>
+  <si>
+    <t>20860.00</t>
+  </si>
+  <si>
+    <t>10.40</t>
+  </si>
+  <si>
+    <t>149.07</t>
+  </si>
+  <si>
+    <t>3225.43</t>
+  </si>
+  <si>
+    <t>1698.67</t>
+  </si>
+  <si>
+    <t>2920.00</t>
+  </si>
+  <si>
+    <t>3473.37</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>283.40</t>
+  </si>
+  <si>
+    <t>5.27</t>
+  </si>
+  <si>
+    <t>112.30</t>
+  </si>
+  <si>
+    <t>1602.00</t>
+  </si>
+  <si>
+    <t>9427.00</t>
+  </si>
+  <si>
+    <t>407.73</t>
+  </si>
+  <si>
+    <t>5790.46</t>
+  </si>
+  <si>
+    <t>7946.31</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>572003.68</t>
+  </si>
+  <si>
+    <t>11495.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>875.60</t>
+  </si>
+  <si>
+    <t>4089.40</t>
+  </si>
+  <si>
+    <t>4100.00</t>
+  </si>
+  <si>
+    <t>276.00</t>
   </si>
 </sst>
 </file>
